--- a/Code/Results/Cases/Case_0_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_84/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.229775666876186</v>
+        <v>10.62502065026562</v>
       </c>
       <c r="D2">
-        <v>6.749962696985891</v>
+        <v>9.305633960376841</v>
       </c>
       <c r="E2">
-        <v>9.067332834592017</v>
+        <v>13.85442038235093</v>
       </c>
       <c r="F2">
-        <v>21.38535611989321</v>
+        <v>32.62761883647302</v>
       </c>
       <c r="G2">
-        <v>23.55447817802392</v>
+        <v>33.95986795101835</v>
       </c>
       <c r="H2">
-        <v>9.07589808479835</v>
+        <v>15.6578877538339</v>
       </c>
       <c r="I2">
-        <v>16.02492163633122</v>
+        <v>25.5186437195432</v>
       </c>
       <c r="J2">
-        <v>5.797627544333466</v>
+        <v>10.16688129325169</v>
       </c>
       <c r="K2">
-        <v>18.84350084307204</v>
+        <v>15.18270522333529</v>
       </c>
       <c r="L2">
-        <v>5.993331863569293</v>
+        <v>10.36177555138434</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.84627633428743</v>
+        <v>17.44698248510248</v>
       </c>
       <c r="O2">
-        <v>14.99733434765559</v>
+        <v>24.5159705517488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.899506734372741</v>
+        <v>10.57915925312134</v>
       </c>
       <c r="D3">
-        <v>6.510403201663491</v>
+        <v>9.275413013108222</v>
       </c>
       <c r="E3">
-        <v>8.866729231165976</v>
+        <v>13.84926298767278</v>
       </c>
       <c r="F3">
-        <v>21.06981481770256</v>
+        <v>32.69158447621862</v>
       </c>
       <c r="G3">
-        <v>23.1136760614715</v>
+        <v>34.03836411065929</v>
       </c>
       <c r="H3">
-        <v>9.113653032303013</v>
+        <v>15.70686311111383</v>
       </c>
       <c r="I3">
-        <v>15.88211700759289</v>
+        <v>25.58106363765692</v>
       </c>
       <c r="J3">
-        <v>5.799075012056393</v>
+        <v>10.18425137982849</v>
       </c>
       <c r="K3">
-        <v>17.62180436349304</v>
+        <v>14.76377101289327</v>
       </c>
       <c r="L3">
-        <v>5.973226336609196</v>
+        <v>10.37605248341439</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.83190873114566</v>
+        <v>17.46131791922075</v>
       </c>
       <c r="O3">
-        <v>14.95023941962219</v>
+        <v>24.59400464789739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.69274106916361</v>
+        <v>10.55263694564043</v>
       </c>
       <c r="D4">
-        <v>6.360924707760934</v>
+        <v>9.258049686710134</v>
       </c>
       <c r="E4">
-        <v>8.745107328554358</v>
+        <v>13.84805949154801</v>
       </c>
       <c r="F4">
-        <v>20.89207374407616</v>
+        <v>32.73821529397626</v>
       </c>
       <c r="G4">
-        <v>22.86618516194486</v>
+        <v>34.09654784167172</v>
       </c>
       <c r="H4">
-        <v>9.142823125953301</v>
+        <v>15.73939202794329</v>
       </c>
       <c r="I4">
-        <v>15.80677689859308</v>
+        <v>25.62459629856744</v>
       </c>
       <c r="J4">
-        <v>5.801970593375465</v>
+        <v>10.1959033835155</v>
       </c>
       <c r="K4">
-        <v>16.82648691306172</v>
+        <v>14.50123010104617</v>
       </c>
       <c r="L4">
-        <v>5.962884524695284</v>
+        <v>10.3858429523676</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.82658532381976</v>
+        <v>17.4718226873251</v>
       </c>
       <c r="O4">
-        <v>14.93447259450618</v>
+        <v>24.64696474030588</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.607608778624571</v>
+        <v>10.54224871735329</v>
       </c>
       <c r="D5">
-        <v>6.29950145931724</v>
+        <v>9.251278727671275</v>
       </c>
       <c r="E5">
-        <v>8.695994940019219</v>
+        <v>13.84806461318878</v>
       </c>
       <c r="F5">
-        <v>20.82364915076285</v>
+        <v>32.75906429702994</v>
       </c>
       <c r="G5">
-        <v>22.77113099452349</v>
+        <v>34.122760728662</v>
       </c>
       <c r="H5">
-        <v>9.1561641637993</v>
+        <v>15.75326579293449</v>
       </c>
       <c r="I5">
-        <v>15.77911977809761</v>
+        <v>25.64364352243189</v>
       </c>
       <c r="J5">
-        <v>5.803647407223491</v>
+        <v>10.200900184701</v>
       </c>
       <c r="K5">
-        <v>16.49100047341213</v>
+        <v>14.39305264275839</v>
       </c>
       <c r="L5">
-        <v>5.959169257412499</v>
+        <v>10.39009067949049</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.82528076560263</v>
+        <v>17.47653273848761</v>
       </c>
       <c r="O5">
-        <v>14.93124493708559</v>
+        <v>24.66981326884054</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.593423848967147</v>
+        <v>10.54054934793037</v>
       </c>
       <c r="D6">
-        <v>6.289274217111488</v>
+        <v>9.250172957859174</v>
       </c>
       <c r="E6">
-        <v>8.687868773555383</v>
+        <v>13.84809544582747</v>
       </c>
       <c r="F6">
-        <v>20.81252848175432</v>
+        <v>32.76263768718828</v>
       </c>
       <c r="G6">
-        <v>22.75569641567579</v>
+        <v>34.12726423382065</v>
       </c>
       <c r="H6">
-        <v>9.158465756243391</v>
+        <v>15.75560684242725</v>
       </c>
       <c r="I6">
-        <v>15.77470934201118</v>
+        <v>25.64688519783872</v>
       </c>
       <c r="J6">
-        <v>5.803955620496718</v>
+        <v>10.2017449211193</v>
       </c>
       <c r="K6">
-        <v>16.43460481532014</v>
+        <v>14.37502245244194</v>
       </c>
       <c r="L6">
-        <v>5.958582343564391</v>
+        <v>10.39081160860017</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.82511594235096</v>
+        <v>17.47734079758123</v>
       </c>
       <c r="O6">
-        <v>14.93089883122567</v>
+        <v>24.6736836985896</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.691596304383783</v>
+        <v>10.55249513595472</v>
       </c>
       <c r="D7">
-        <v>6.360098269333292</v>
+        <v>9.257957131062149</v>
       </c>
       <c r="E7">
-        <v>8.744443082126727</v>
+        <v>13.84805755175565</v>
       </c>
       <c r="F7">
-        <v>20.89113475811784</v>
+        <v>32.7384889986621</v>
       </c>
       <c r="G7">
-        <v>22.86487979436685</v>
+        <v>34.09689123732193</v>
       </c>
       <c r="H7">
-        <v>9.142997228368381</v>
+        <v>15.73957663237389</v>
       </c>
       <c r="I7">
-        <v>15.80639166127689</v>
+        <v>25.62484788552706</v>
       </c>
       <c r="J7">
-        <v>5.801991206087469</v>
+        <v>10.19596976536497</v>
       </c>
       <c r="K7">
-        <v>16.82200856327698</v>
+        <v>14.49977579962331</v>
       </c>
       <c r="L7">
-        <v>5.962832404761772</v>
+        <v>10.38589919335915</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.82656424821124</v>
+        <v>17.47188446917964</v>
       </c>
       <c r="O7">
-        <v>14.93441626616781</v>
+        <v>24.64726775707381</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.116796669434228</v>
+        <v>10.60887301836678</v>
       </c>
       <c r="D8">
-        <v>6.667910207877284</v>
+        <v>9.294969291993555</v>
       </c>
       <c r="E8">
-        <v>8.997878814244215</v>
+        <v>13.85223585263953</v>
       </c>
       <c r="F8">
-        <v>21.27322970567741</v>
+        <v>32.6481458096413</v>
       </c>
       <c r="G8">
-        <v>23.39767550147433</v>
+        <v>33.98485570391127</v>
       </c>
       <c r="H8">
-        <v>9.087641568265347</v>
+        <v>15.67426428530577</v>
       </c>
       <c r="I8">
-        <v>15.97308780407522</v>
+        <v>25.53908437876747</v>
       </c>
       <c r="J8">
-        <v>5.79770542818526</v>
+        <v>10.17266595168948</v>
       </c>
       <c r="K8">
-        <v>18.43162231647844</v>
+        <v>15.03944428623421</v>
       </c>
       <c r="L8">
-        <v>5.985981090665843</v>
+        <v>10.36648589804236</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.84058725470321</v>
+        <v>17.45157260365475</v>
       </c>
       <c r="O8">
-        <v>14.9783025741604</v>
+        <v>24.54182793541363</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.914177791776325</v>
+        <v>10.73203382386035</v>
       </c>
       <c r="D9">
-        <v>7.249014150282192</v>
+        <v>9.376786216476042</v>
       </c>
       <c r="E9">
-        <v>9.504588111917551</v>
+        <v>13.87591623013927</v>
       </c>
       <c r="F9">
-        <v>22.14964377457848</v>
+        <v>32.52946667966158</v>
       </c>
       <c r="G9">
-        <v>24.62612576298183</v>
+        <v>33.84474468547005</v>
       </c>
       <c r="H9">
-        <v>9.028979419061228</v>
+        <v>15.56569227761215</v>
       </c>
       <c r="I9">
-        <v>16.40015648105499</v>
+        <v>25.4122938844315</v>
       </c>
       <c r="J9">
-        <v>5.805574556910833</v>
+        <v>10.13477851336495</v>
       </c>
       <c r="K9">
-        <v>21.23095538815815</v>
+        <v>16.04964591383546</v>
       </c>
       <c r="L9">
-        <v>6.047460312306378</v>
+        <v>10.33652479499248</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.896528329016</v>
+        <v>17.42520337597297</v>
       </c>
       <c r="O9">
-        <v>15.17332281828333</v>
+        <v>24.37520085490876</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.472266524441912</v>
+        <v>10.82966219170772</v>
       </c>
       <c r="D10">
-        <v>7.658055801083543</v>
+        <v>9.442210586909082</v>
       </c>
       <c r="E10">
-        <v>9.879500448830177</v>
+        <v>13.90262487804777</v>
       </c>
       <c r="F10">
-        <v>22.87051619691912</v>
+        <v>32.47806339345487</v>
       </c>
       <c r="G10">
-        <v>25.63900746965557</v>
+        <v>33.79074352203191</v>
       </c>
       <c r="H10">
-        <v>9.019622033810105</v>
+        <v>15.49781973004773</v>
       </c>
       <c r="I10">
-        <v>16.77752954596389</v>
+        <v>25.34447325776463</v>
       </c>
       <c r="J10">
-        <v>5.821760488622695</v>
+        <v>10.11168050283016</v>
       </c>
       <c r="K10">
-        <v>23.07232448252522</v>
+        <v>16.75530672780677</v>
       </c>
       <c r="L10">
-        <v>6.102680363309881</v>
+        <v>10.31942878862601</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.95593019006005</v>
+        <v>17.4139720362736</v>
       </c>
       <c r="O10">
-        <v>15.38893407775649</v>
+        <v>24.27737650349516</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.719221594568621</v>
+        <v>10.87550306703491</v>
       </c>
       <c r="D11">
-        <v>7.839539978815862</v>
+        <v>9.473055126639897</v>
       </c>
       <c r="E11">
-        <v>10.04999006135145</v>
+        <v>13.91676525381784</v>
       </c>
       <c r="F11">
-        <v>23.21488057142139</v>
+        <v>32.46246880852904</v>
       </c>
       <c r="G11">
-        <v>26.12308880567018</v>
+        <v>33.77687112867741</v>
       </c>
       <c r="H11">
-        <v>9.02342514307508</v>
+        <v>15.4695266436751</v>
       </c>
       <c r="I11">
-        <v>16.96341116729203</v>
+        <v>25.31913743855441</v>
       </c>
       <c r="J11">
-        <v>5.8314876209634</v>
+        <v>10.10219622003643</v>
       </c>
       <c r="K11">
-        <v>23.86386207477027</v>
+        <v>17.06707418068245</v>
       </c>
       <c r="L11">
-        <v>6.13003099794853</v>
+        <v>10.3127130369815</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.98713995587313</v>
+        <v>17.410616223148</v>
       </c>
       <c r="O11">
-        <v>15.50385947187961</v>
+        <v>24.23823954046254</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.811681512831001</v>
+        <v>10.89305635784914</v>
       </c>
       <c r="D12">
-        <v>7.907554164664337</v>
+        <v>9.484884349316069</v>
       </c>
       <c r="E12">
-        <v>10.11449290099259</v>
+        <v>13.92240301435115</v>
       </c>
       <c r="F12">
-        <v>23.34761187339773</v>
+        <v>32.45768410896347</v>
       </c>
       <c r="G12">
-        <v>26.30968071200274</v>
+        <v>33.77315930573329</v>
       </c>
       <c r="H12">
-        <v>9.02608561630554</v>
+        <v>15.45918426043474</v>
       </c>
       <c r="I12">
-        <v>17.03586605448461</v>
+        <v>25.31033760565654</v>
       </c>
       <c r="J12">
-        <v>5.835519557768449</v>
+        <v>10.09875146512776</v>
       </c>
       <c r="K12">
-        <v>24.15701808025667</v>
+        <v>17.18370659940341</v>
       </c>
       <c r="L12">
-        <v>6.140712113315216</v>
+        <v>10.31032205775651</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.99957803999302</v>
+        <v>17.40959630720878</v>
       </c>
       <c r="O12">
-        <v>15.54988381994868</v>
+        <v>24.2241925851028</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.791816468498807</v>
+        <v>10.8892674800727</v>
       </c>
       <c r="D13">
-        <v>7.892938381213055</v>
+        <v>9.482330192352888</v>
       </c>
       <c r="E13">
-        <v>10.10060437331246</v>
+        <v>13.92117628232808</v>
       </c>
       <c r="F13">
-        <v>23.31892286708138</v>
+        <v>32.45866473642096</v>
       </c>
       <c r="G13">
-        <v>26.26935007073502</v>
+        <v>33.77389011489114</v>
       </c>
       <c r="H13">
-        <v>9.02545737850585</v>
+        <v>15.46139514723414</v>
       </c>
       <c r="I13">
-        <v>17.02016943894288</v>
+        <v>25.31219746630138</v>
       </c>
       <c r="J13">
-        <v>5.834635572291007</v>
+        <v>10.09948683476609</v>
       </c>
       <c r="K13">
-        <v>24.09417362567008</v>
+        <v>17.15865265781844</v>
       </c>
       <c r="L13">
-        <v>6.13839728290914</v>
+        <v>10.31083023976171</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.99687143683314</v>
+        <v>17.40980482812903</v>
       </c>
       <c r="O13">
-        <v>15.53985901637903</v>
+        <v>24.22718342148956</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.726849816018007</v>
+        <v>10.87694335690768</v>
       </c>
       <c r="D14">
-        <v>7.845150033711187</v>
+        <v>9.4740253750431</v>
       </c>
       <c r="E14">
-        <v>10.05529817572769</v>
+        <v>13.9172234204759</v>
       </c>
       <c r="F14">
-        <v>23.22575401189408</v>
+        <v>32.46205270811334</v>
       </c>
       <c r="G14">
-        <v>26.13837450583068</v>
+        <v>33.77653484680202</v>
       </c>
       <c r="H14">
-        <v>9.023619211245554</v>
+        <v>15.46866832093594</v>
       </c>
       <c r="I14">
-        <v>16.96933057103276</v>
+        <v>25.31839754693482</v>
       </c>
       <c r="J14">
-        <v>5.83181229750653</v>
+        <v>10.10190987937698</v>
       </c>
       <c r="K14">
-        <v>23.88811182242933</v>
+        <v>17.0766987312482</v>
       </c>
       <c r="L14">
-        <v>6.130903227780266</v>
+        <v>10.3125132835959</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.98815072526819</v>
+        <v>17.41052729393706</v>
       </c>
       <c r="O14">
-        <v>15.50759527749419</v>
+        <v>24.23706837836356</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.686916631732052</v>
+        <v>10.86941944848266</v>
       </c>
       <c r="D15">
-        <v>7.815784486227419</v>
+        <v>9.468957647449736</v>
       </c>
       <c r="E15">
-        <v>10.027537894769</v>
+        <v>13.91483895128134</v>
       </c>
       <c r="F15">
-        <v>23.16898747026402</v>
+        <v>32.46427388482027</v>
       </c>
       <c r="G15">
-        <v>26.05857325252515</v>
+        <v>33.77835564058314</v>
       </c>
       <c r="H15">
-        <v>9.02265403343034</v>
+        <v>15.47317174935456</v>
       </c>
       <c r="I15">
-        <v>16.93845985124978</v>
+        <v>25.32229874329956</v>
       </c>
       <c r="J15">
-        <v>5.830128597761189</v>
+        <v>10.10341316212008</v>
       </c>
       <c r="K15">
-        <v>23.76103732488135</v>
+        <v>17.02631097392521</v>
       </c>
       <c r="L15">
-        <v>6.126355193706687</v>
+        <v>10.31356399373969</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.98289025427421</v>
+        <v>17.41100245563743</v>
       </c>
       <c r="O15">
-        <v>15.48816131551845</v>
+        <v>24.24322397320356</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.455982656710262</v>
+        <v>10.82669419412817</v>
       </c>
       <c r="D16">
-        <v>7.646098577738461</v>
+        <v>9.440216048245107</v>
       </c>
       <c r="E16">
-        <v>9.868353039365619</v>
+        <v>13.9017405625575</v>
       </c>
       <c r="F16">
-        <v>22.84833894601398</v>
+        <v>32.47923933450912</v>
       </c>
       <c r="G16">
-        <v>25.60783473330149</v>
+        <v>33.79186563057409</v>
       </c>
       <c r="H16">
-        <v>9.019540902904883</v>
+        <v>15.49972073625826</v>
       </c>
       <c r="I16">
-        <v>16.76566972314524</v>
+        <v>25.34624010979083</v>
       </c>
       <c r="J16">
-        <v>5.821173096159046</v>
+        <v>10.11232087790258</v>
       </c>
       <c r="K16">
-        <v>23.0196718586339</v>
+        <v>16.73473741514393</v>
       </c>
       <c r="L16">
-        <v>6.100938104528424</v>
+        <v>10.31988899393639</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.95397630819819</v>
+        <v>17.41422652082957</v>
       </c>
       <c r="O16">
-        <v>15.38176956964519</v>
+        <v>24.28004230833773</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.312492161179621</v>
+        <v>10.8008418422739</v>
       </c>
       <c r="D17">
-        <v>7.540788132385472</v>
+        <v>9.42285665760496</v>
       </c>
       <c r="E17">
-        <v>9.770646576048318</v>
+        <v>13.89421277815643</v>
       </c>
       <c r="F17">
-        <v>22.65581692630191</v>
+        <v>32.49041571090892</v>
       </c>
       <c r="G17">
-        <v>25.3372433157236</v>
+        <v>33.80289532461418</v>
       </c>
       <c r="H17">
-        <v>9.019738828514544</v>
+        <v>15.51666928491722</v>
       </c>
       <c r="I17">
-        <v>16.66332600050648</v>
+        <v>25.36234102335073</v>
       </c>
       <c r="J17">
-        <v>5.816290725333119</v>
+        <v>10.11804724526591</v>
       </c>
       <c r="K17">
-        <v>22.55309173116488</v>
+        <v>16.55342660673776</v>
       </c>
       <c r="L17">
-        <v>6.085919255732485</v>
+        <v>10.32404066304241</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.93732339866947</v>
+        <v>17.41665256729112</v>
       </c>
       <c r="O17">
-        <v>15.32087644889237</v>
+        <v>24.30400447008891</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.22931160002042</v>
+        <v>10.78610746955181</v>
       </c>
       <c r="D18">
-        <v>7.479786715656517</v>
+        <v>9.412974310267105</v>
       </c>
       <c r="E18">
-        <v>9.714445460103464</v>
+        <v>13.89007054856411</v>
       </c>
       <c r="F18">
-        <v>22.5466327936107</v>
+        <v>32.4975772100301</v>
       </c>
       <c r="G18">
-        <v>25.18380569022865</v>
+        <v>33.8102456420202</v>
       </c>
       <c r="H18">
-        <v>9.020607584805141</v>
+        <v>15.52666070283011</v>
       </c>
       <c r="I18">
-        <v>16.60579743999473</v>
+        <v>25.37212099794295</v>
       </c>
       <c r="J18">
-        <v>5.813704517860805</v>
+        <v>10.12143722446702</v>
       </c>
       <c r="K18">
-        <v>22.28038394665337</v>
+        <v>16.44827685186542</v>
       </c>
       <c r="L18">
-        <v>6.077490599494287</v>
+        <v>10.32652851851641</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.92813817680067</v>
+        <v>17.41821308019359</v>
       </c>
       <c r="O18">
-        <v>15.28743314712992</v>
+        <v>24.31829162577074</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.201038732843294</v>
+        <v>10.78114222321904</v>
       </c>
       <c r="D19">
-        <v>7.459060533055141</v>
+        <v>9.4096460884242</v>
       </c>
       <c r="E19">
-        <v>9.695417792072142</v>
+        <v>13.8887003649643</v>
       </c>
       <c r="F19">
-        <v>22.50993206757191</v>
+        <v>32.50012786121938</v>
       </c>
       <c r="G19">
-        <v>25.13223422050267</v>
+        <v>33.81290703867538</v>
       </c>
       <c r="H19">
-        <v>9.021029530677573</v>
+        <v>15.53008536388677</v>
       </c>
       <c r="I19">
-        <v>16.5865481106484</v>
+        <v>25.3755214576084</v>
       </c>
       <c r="J19">
-        <v>5.81286674310583</v>
+        <v>10.12260156861013</v>
       </c>
       <c r="K19">
-        <v>22.18730239273405</v>
+        <v>16.41252961233821</v>
       </c>
       <c r="L19">
-        <v>6.074672731083586</v>
+        <v>10.32738804039806</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.9250952053382</v>
+        <v>17.41876983998851</v>
       </c>
       <c r="O19">
-        <v>15.27637869700274</v>
+        <v>24.32321563853849</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.327834577063548</v>
+        <v>10.80357995490082</v>
       </c>
       <c r="D20">
-        <v>7.552043458674975</v>
+        <v>9.424694052491263</v>
       </c>
       <c r="E20">
-        <v>9.781048270677084</v>
+        <v>13.89499473460864</v>
       </c>
       <c r="F20">
-        <v>22.67615111015136</v>
+        <v>32.48915008291235</v>
       </c>
       <c r="G20">
-        <v>25.36582111431207</v>
+        <v>33.80161701288846</v>
       </c>
       <c r="H20">
-        <v>9.01963918611102</v>
+        <v>15.51483992532926</v>
       </c>
       <c r="I20">
-        <v>16.67408213209248</v>
+        <v>25.36057331438537</v>
       </c>
       <c r="J20">
-        <v>5.816787424047924</v>
+        <v>10.11742769727495</v>
       </c>
       <c r="K20">
-        <v>22.60320914853592</v>
+        <v>16.57281767415334</v>
       </c>
       <c r="L20">
-        <v>6.087496301526615</v>
+        <v>10.32358837235759</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.93905532039727</v>
+        <v>17.41637723082431</v>
       </c>
       <c r="O20">
-        <v>15.32719439766246</v>
+        <v>24.30140140162552</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.745961207133258</v>
+        <v>10.88055806664889</v>
       </c>
       <c r="D21">
-        <v>7.859206257115687</v>
+        <v>9.47646070935304</v>
       </c>
       <c r="E21">
-        <v>10.06860764639995</v>
+        <v>13.91837681424943</v>
       </c>
       <c r="F21">
-        <v>23.25305707820218</v>
+        <v>32.46102716345176</v>
       </c>
       <c r="G21">
-        <v>26.17675675395559</v>
+        <v>33.77571616947122</v>
       </c>
       <c r="H21">
-        <v>9.024125514502224</v>
+        <v>15.46652192668497</v>
       </c>
       <c r="I21">
-        <v>16.98420697202213</v>
+        <v>25.31655486876576</v>
       </c>
       <c r="J21">
-        <v>5.832632035557623</v>
+        <v>10.10119419314002</v>
       </c>
       <c r="K21">
-        <v>23.94881540394757</v>
+        <v>17.10081005451856</v>
       </c>
       <c r="L21">
-        <v>6.133095594423666</v>
+        <v>10.31201480799262</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.99069525258721</v>
+        <v>17.41030829037533</v>
       </c>
       <c r="O21">
-        <v>15.51700332053947</v>
+        <v>24.23414392237031</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.01305143125609</v>
+        <v>10.93199512887886</v>
       </c>
       <c r="D22">
-        <v>8.05579890952103</v>
+        <v>9.511158871731851</v>
       </c>
       <c r="E22">
-        <v>10.25618720887413</v>
+        <v>13.9353069303691</v>
       </c>
       <c r="F22">
-        <v>23.64364995868647</v>
+        <v>32.44917894910474</v>
       </c>
       <c r="G22">
-        <v>26.72583848864155</v>
+        <v>33.76777351511093</v>
       </c>
       <c r="H22">
-        <v>9.034199419982949</v>
+        <v>15.43710936414882</v>
       </c>
       <c r="I22">
-        <v>17.19893785850257</v>
+        <v>25.2924163301507</v>
       </c>
       <c r="J22">
-        <v>5.845022663318632</v>
+        <v>10.09143977295907</v>
       </c>
       <c r="K22">
-        <v>24.78990592612271</v>
+        <v>17.43752611262121</v>
       </c>
       <c r="L22">
-        <v>6.164787439131445</v>
+        <v>10.30533731002778</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.02806489909812</v>
+        <v>17.4078034576796</v>
       </c>
       <c r="O22">
-        <v>15.65568674984406</v>
+        <v>24.19469588039065</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.871083275012396</v>
+        <v>10.90444280814209</v>
       </c>
       <c r="D23">
-        <v>7.951268534678338</v>
+        <v>9.492562838316978</v>
       </c>
       <c r="E23">
-        <v>10.15612029808492</v>
+        <v>13.92612124709096</v>
       </c>
       <c r="F23">
-        <v>23.43395551929115</v>
+        <v>32.45490487391225</v>
       </c>
       <c r="G23">
-        <v>26.43106104759768</v>
+        <v>33.77118961246373</v>
       </c>
       <c r="H23">
-        <v>9.028148887039723</v>
+        <v>15.45260913249158</v>
       </c>
       <c r="I23">
-        <v>17.08322376126334</v>
+        <v>25.30487558137204</v>
       </c>
       <c r="J23">
-        <v>5.838220480701061</v>
+        <v>10.09656777669309</v>
       </c>
       <c r="K23">
-        <v>24.34449149315373</v>
+        <v>17.25860915474232</v>
       </c>
       <c r="L23">
-        <v>6.147698927635214</v>
+        <v>10.30882026602068</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.00778293840255</v>
+        <v>17.40900703193578</v>
       </c>
       <c r="O23">
-        <v>15.58030436413135</v>
+        <v>24.21533686173199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.320900402706627</v>
+        <v>10.80234165312135</v>
       </c>
       <c r="D24">
-        <v>7.546956345376196</v>
+        <v>9.423863061144505</v>
       </c>
       <c r="E24">
-        <v>9.776345749108788</v>
+        <v>13.89464063376672</v>
       </c>
       <c r="F24">
-        <v>22.66695335284091</v>
+        <v>32.48971998063305</v>
       </c>
       <c r="G24">
-        <v>25.35289445479074</v>
+        <v>33.80219179432972</v>
       </c>
       <c r="H24">
-        <v>9.019681887527801</v>
+        <v>15.51566620795185</v>
       </c>
       <c r="I24">
-        <v>16.6692152056949</v>
+        <v>25.36137086550885</v>
       </c>
       <c r="J24">
-        <v>5.816562179670949</v>
+        <v>10.1177074902118</v>
       </c>
       <c r="K24">
-        <v>22.58056497418308</v>
+        <v>16.56405380491274</v>
       </c>
       <c r="L24">
-        <v>6.086782678099488</v>
+        <v>10.32379253831978</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.93827110900843</v>
+        <v>17.41650119405474</v>
       </c>
       <c r="O24">
-        <v>15.32433318484735</v>
+        <v>24.30257665732785</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.702988327450965</v>
+        <v>10.69742046513721</v>
       </c>
       <c r="D25">
-        <v>7.094683511006561</v>
+        <v>9.353695523217027</v>
       </c>
       <c r="E25">
-        <v>9.36681880407648</v>
+        <v>13.86786475969283</v>
       </c>
       <c r="F25">
-        <v>21.89895603431599</v>
+        <v>32.55529519141291</v>
       </c>
       <c r="G25">
-        <v>24.27423293248895</v>
+        <v>33.87408043901905</v>
       </c>
       <c r="H25">
-        <v>9.039168376349039</v>
+        <v>15.59297524443452</v>
       </c>
       <c r="I25">
-        <v>16.27360742502536</v>
+        <v>25.44215173560098</v>
       </c>
       <c r="J25">
-        <v>5.801653650207596</v>
+        <v>10.14419428751203</v>
       </c>
       <c r="K25">
-        <v>20.51166163049623</v>
+        <v>15.78229280932444</v>
       </c>
       <c r="L25">
-        <v>6.029079982852208</v>
+        <v>10.34376471390718</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.87825132258442</v>
+        <v>17.43090227701698</v>
       </c>
       <c r="O25">
-        <v>15.10826668481899</v>
+        <v>24.41596717794808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_84/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_84/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.62502065026562</v>
+        <v>8.229775666876156</v>
       </c>
       <c r="D2">
-        <v>9.305633960376841</v>
+        <v>6.749962696985838</v>
       </c>
       <c r="E2">
-        <v>13.85442038235093</v>
+        <v>9.067332834591957</v>
       </c>
       <c r="F2">
-        <v>32.62761883647302</v>
+        <v>21.38535611989312</v>
       </c>
       <c r="G2">
-        <v>33.95986795101835</v>
+        <v>23.55447817802387</v>
       </c>
       <c r="H2">
-        <v>15.6578877538339</v>
+        <v>9.075898084798398</v>
       </c>
       <c r="I2">
-        <v>25.5186437195432</v>
+        <v>16.02492163633122</v>
       </c>
       <c r="J2">
-        <v>10.16688129325169</v>
+        <v>5.797627544333462</v>
       </c>
       <c r="K2">
-        <v>15.18270522333529</v>
+        <v>18.84350084307205</v>
       </c>
       <c r="L2">
-        <v>10.36177555138434</v>
+        <v>5.993331863569233</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.44698248510248</v>
+        <v>12.84627633428743</v>
       </c>
       <c r="O2">
-        <v>24.5159705517488</v>
+        <v>14.9973343476556</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.57915925312134</v>
+        <v>7.899506734372813</v>
       </c>
       <c r="D3">
-        <v>9.275413013108222</v>
+        <v>6.510403201663547</v>
       </c>
       <c r="E3">
-        <v>13.84926298767278</v>
+        <v>8.866729231165879</v>
       </c>
       <c r="F3">
-        <v>32.69158447621862</v>
+        <v>21.06981481770266</v>
       </c>
       <c r="G3">
-        <v>34.03836411065929</v>
+        <v>23.11367606147152</v>
       </c>
       <c r="H3">
-        <v>15.70686311111383</v>
+        <v>9.113653032303016</v>
       </c>
       <c r="I3">
-        <v>25.58106363765692</v>
+        <v>15.88211700759289</v>
       </c>
       <c r="J3">
-        <v>10.18425137982849</v>
+        <v>5.799075012056279</v>
       </c>
       <c r="K3">
-        <v>14.76377101289327</v>
+        <v>17.62180436349303</v>
       </c>
       <c r="L3">
-        <v>10.37605248341439</v>
+        <v>5.973226336609076</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.46131791922075</v>
+        <v>12.83190873114566</v>
       </c>
       <c r="O3">
-        <v>24.59400464789739</v>
+        <v>14.95023941962219</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.55263694564043</v>
+        <v>7.692741069163654</v>
       </c>
       <c r="D4">
-        <v>9.258049686710134</v>
+        <v>6.360924707760914</v>
       </c>
       <c r="E4">
-        <v>13.84805949154801</v>
+        <v>8.745107328554317</v>
       </c>
       <c r="F4">
-        <v>32.73821529397626</v>
+        <v>20.89207374407597</v>
       </c>
       <c r="G4">
-        <v>34.09654784167172</v>
+        <v>22.86618516194465</v>
       </c>
       <c r="H4">
-        <v>15.73939202794329</v>
+        <v>9.142823125953253</v>
       </c>
       <c r="I4">
-        <v>25.62459629856744</v>
+        <v>15.80677689859295</v>
       </c>
       <c r="J4">
-        <v>10.1959033835155</v>
+        <v>5.801970593375465</v>
       </c>
       <c r="K4">
-        <v>14.50123010104617</v>
+        <v>16.82648691306174</v>
       </c>
       <c r="L4">
-        <v>10.3858429523676</v>
+        <v>5.962884524695275</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.4718226873251</v>
+        <v>12.82658532381972</v>
       </c>
       <c r="O4">
-        <v>24.64696474030588</v>
+        <v>14.93447259450611</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.54224871735329</v>
+        <v>7.607608778624584</v>
       </c>
       <c r="D5">
-        <v>9.251278727671275</v>
+        <v>6.299501459317247</v>
       </c>
       <c r="E5">
-        <v>13.84806461318878</v>
+        <v>8.695994940019171</v>
       </c>
       <c r="F5">
-        <v>32.75906429702994</v>
+        <v>20.82364915076267</v>
       </c>
       <c r="G5">
-        <v>34.122760728662</v>
+        <v>22.77113099452328</v>
       </c>
       <c r="H5">
-        <v>15.75326579293449</v>
+        <v>9.156164163799174</v>
       </c>
       <c r="I5">
-        <v>25.64364352243189</v>
+        <v>15.77911977809741</v>
       </c>
       <c r="J5">
-        <v>10.200900184701</v>
+        <v>5.803647407223434</v>
       </c>
       <c r="K5">
-        <v>14.39305264275839</v>
+        <v>16.49100047341217</v>
       </c>
       <c r="L5">
-        <v>10.39009067949049</v>
+        <v>5.959169257412468</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.47653273848761</v>
+        <v>12.82528076560263</v>
       </c>
       <c r="O5">
-        <v>24.66981326884054</v>
+        <v>14.93124493708543</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.54054934793037</v>
+        <v>7.593423848967147</v>
       </c>
       <c r="D6">
-        <v>9.250172957859174</v>
+        <v>6.289274217111607</v>
       </c>
       <c r="E6">
-        <v>13.84809544582747</v>
+        <v>8.687868773555387</v>
       </c>
       <c r="F6">
-        <v>32.76263768718828</v>
+        <v>20.81252848175462</v>
       </c>
       <c r="G6">
-        <v>34.12726423382065</v>
+        <v>22.7556964156763</v>
       </c>
       <c r="H6">
-        <v>15.75560684242725</v>
+        <v>9.158465756243396</v>
       </c>
       <c r="I6">
-        <v>25.64688519783872</v>
+        <v>15.77470934201136</v>
       </c>
       <c r="J6">
-        <v>10.2017449211193</v>
+        <v>5.803955620496778</v>
       </c>
       <c r="K6">
-        <v>14.37502245244194</v>
+        <v>16.43460481532008</v>
       </c>
       <c r="L6">
-        <v>10.39081160860017</v>
+        <v>5.958582343564427</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.47734079758123</v>
+        <v>12.82511594235102</v>
       </c>
       <c r="O6">
-        <v>24.6736836985896</v>
+        <v>14.93089883122588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.55249513595472</v>
+        <v>7.691596304383763</v>
       </c>
       <c r="D7">
-        <v>9.257957131062149</v>
+        <v>6.360098269333187</v>
       </c>
       <c r="E7">
-        <v>13.84805755175565</v>
+        <v>8.744443082126589</v>
       </c>
       <c r="F7">
-        <v>32.7384889986621</v>
+        <v>20.89113475811778</v>
       </c>
       <c r="G7">
-        <v>34.09689123732193</v>
+        <v>22.86487979436703</v>
       </c>
       <c r="H7">
-        <v>15.73957663237389</v>
+        <v>9.142997228368232</v>
       </c>
       <c r="I7">
-        <v>25.62484788552706</v>
+        <v>15.80639166127679</v>
       </c>
       <c r="J7">
-        <v>10.19596976536497</v>
+        <v>5.80199120608738</v>
       </c>
       <c r="K7">
-        <v>14.49977579962331</v>
+        <v>16.82200856327699</v>
       </c>
       <c r="L7">
-        <v>10.38589919335915</v>
+        <v>5.962832404761746</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.47188446917964</v>
+        <v>12.82656424821124</v>
       </c>
       <c r="O7">
-        <v>24.64726775707381</v>
+        <v>14.9344162661678</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.60887301836678</v>
+        <v>8.116796669434216</v>
       </c>
       <c r="D8">
-        <v>9.294969291993555</v>
+        <v>6.667910207877179</v>
       </c>
       <c r="E8">
-        <v>13.85223585263953</v>
+        <v>8.997878814244206</v>
       </c>
       <c r="F8">
-        <v>32.6481458096413</v>
+        <v>21.27322970567732</v>
       </c>
       <c r="G8">
-        <v>33.98485570391127</v>
+        <v>23.39767550147441</v>
       </c>
       <c r="H8">
-        <v>15.67426428530577</v>
+        <v>9.087641568265299</v>
       </c>
       <c r="I8">
-        <v>25.53908437876747</v>
+        <v>15.97308780407523</v>
       </c>
       <c r="J8">
-        <v>10.17266595168948</v>
+        <v>5.797705428185348</v>
       </c>
       <c r="K8">
-        <v>15.03944428623421</v>
+        <v>18.43162231647843</v>
       </c>
       <c r="L8">
-        <v>10.36648589804236</v>
+        <v>5.985981090665841</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.45157260365475</v>
+        <v>12.8405872547032</v>
       </c>
       <c r="O8">
-        <v>24.54182793541363</v>
+        <v>14.9783025741604</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.73203382386035</v>
+        <v>8.914177791776396</v>
       </c>
       <c r="D9">
-        <v>9.376786216476042</v>
+        <v>7.249014150282298</v>
       </c>
       <c r="E9">
-        <v>13.87591623013927</v>
+        <v>9.50458811191762</v>
       </c>
       <c r="F9">
-        <v>32.52946667966158</v>
+        <v>22.14964377457854</v>
       </c>
       <c r="G9">
-        <v>33.84474468547005</v>
+        <v>24.62612576298184</v>
       </c>
       <c r="H9">
-        <v>15.56569227761215</v>
+        <v>9.028979419061276</v>
       </c>
       <c r="I9">
-        <v>25.4122938844315</v>
+        <v>16.40015648105503</v>
       </c>
       <c r="J9">
-        <v>10.13477851336495</v>
+        <v>5.805574556910885</v>
       </c>
       <c r="K9">
-        <v>16.04964591383546</v>
+        <v>21.23095538815812</v>
       </c>
       <c r="L9">
-        <v>10.33652479499248</v>
+        <v>6.047460312306435</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.42520337597297</v>
+        <v>12.89652832901603</v>
       </c>
       <c r="O9">
-        <v>24.37520085490876</v>
+        <v>15.17332281828334</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.82966219170772</v>
+        <v>9.472266524441755</v>
       </c>
       <c r="D10">
-        <v>9.442210586909082</v>
+        <v>7.658055801083534</v>
       </c>
       <c r="E10">
-        <v>13.90262487804777</v>
+        <v>9.879500448830138</v>
       </c>
       <c r="F10">
-        <v>32.47806339345487</v>
+        <v>22.87051619691924</v>
       </c>
       <c r="G10">
-        <v>33.79074352203191</v>
+        <v>25.63900746965565</v>
       </c>
       <c r="H10">
-        <v>15.49781973004773</v>
+        <v>9.019622033810251</v>
       </c>
       <c r="I10">
-        <v>25.34447325776463</v>
+        <v>16.77752954596397</v>
       </c>
       <c r="J10">
-        <v>10.11168050283016</v>
+        <v>5.82176048862267</v>
       </c>
       <c r="K10">
-        <v>16.75530672780677</v>
+        <v>23.07232448252517</v>
       </c>
       <c r="L10">
-        <v>10.31942878862601</v>
+        <v>6.10268036330988</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.4139720362736</v>
+        <v>12.95593019006008</v>
       </c>
       <c r="O10">
-        <v>24.27737650349516</v>
+        <v>15.38893407775663</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.87550306703491</v>
+        <v>9.719221594568532</v>
       </c>
       <c r="D11">
-        <v>9.473055126639897</v>
+        <v>7.839539978815835</v>
       </c>
       <c r="E11">
-        <v>13.91676525381784</v>
+        <v>10.04999006135142</v>
       </c>
       <c r="F11">
-        <v>32.46246880852904</v>
+        <v>23.21488057142139</v>
       </c>
       <c r="G11">
-        <v>33.77687112867741</v>
+        <v>26.12308880567017</v>
       </c>
       <c r="H11">
-        <v>15.4695266436751</v>
+        <v>9.023425143075086</v>
       </c>
       <c r="I11">
-        <v>25.31913743855441</v>
+        <v>16.96341116729199</v>
       </c>
       <c r="J11">
-        <v>10.10219622003643</v>
+        <v>5.831487620963376</v>
       </c>
       <c r="K11">
-        <v>17.06707418068245</v>
+        <v>23.86386207477031</v>
       </c>
       <c r="L11">
-        <v>10.3127130369815</v>
+        <v>6.130030997948508</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.410616223148</v>
+        <v>12.98713995587315</v>
       </c>
       <c r="O11">
-        <v>24.23823954046254</v>
+        <v>15.50385947187959</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.89305635784914</v>
+        <v>9.811681512831024</v>
       </c>
       <c r="D12">
-        <v>9.484884349316069</v>
+        <v>7.90755416466433</v>
       </c>
       <c r="E12">
-        <v>13.92240301435115</v>
+        <v>10.11449290099252</v>
       </c>
       <c r="F12">
-        <v>32.45768410896347</v>
+        <v>23.34761187339775</v>
       </c>
       <c r="G12">
-        <v>33.77315930573329</v>
+        <v>26.30968071200276</v>
       </c>
       <c r="H12">
-        <v>15.45918426043474</v>
+        <v>9.026085616305551</v>
       </c>
       <c r="I12">
-        <v>25.31033760565654</v>
+        <v>17.03586605448463</v>
       </c>
       <c r="J12">
-        <v>10.09875146512776</v>
+        <v>5.835519557768369</v>
       </c>
       <c r="K12">
-        <v>17.18370659940341</v>
+        <v>24.15701808025669</v>
       </c>
       <c r="L12">
-        <v>10.31032205775651</v>
+        <v>6.140712113315126</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.40959630720878</v>
+        <v>12.99957803999307</v>
       </c>
       <c r="O12">
-        <v>24.2241925851028</v>
+        <v>15.54988381994869</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.8892674800727</v>
+        <v>9.791816468498743</v>
       </c>
       <c r="D13">
-        <v>9.482330192352888</v>
+        <v>7.892938381213008</v>
       </c>
       <c r="E13">
-        <v>13.92117628232808</v>
+        <v>10.1006043733124</v>
       </c>
       <c r="F13">
-        <v>32.45866473642096</v>
+        <v>23.31892286708133</v>
       </c>
       <c r="G13">
-        <v>33.77389011489114</v>
+        <v>26.26935007073495</v>
       </c>
       <c r="H13">
-        <v>15.46139514723414</v>
+        <v>9.02545737850582</v>
       </c>
       <c r="I13">
-        <v>25.31219746630138</v>
+        <v>17.02016943894285</v>
       </c>
       <c r="J13">
-        <v>10.09948683476609</v>
+        <v>5.834635572290961</v>
       </c>
       <c r="K13">
-        <v>17.15865265781844</v>
+        <v>24.0941736256701</v>
       </c>
       <c r="L13">
-        <v>10.31083023976171</v>
+        <v>6.138397282909088</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.40980482812903</v>
+        <v>12.99687143683317</v>
       </c>
       <c r="O13">
-        <v>24.22718342148956</v>
+        <v>15.539859016379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.87694335690768</v>
+        <v>9.726849816018071</v>
       </c>
       <c r="D14">
-        <v>9.4740253750431</v>
+        <v>7.845150033711199</v>
       </c>
       <c r="E14">
-        <v>13.9172234204759</v>
+        <v>10.05529817572775</v>
       </c>
       <c r="F14">
-        <v>32.46205270811334</v>
+        <v>23.22575401189401</v>
       </c>
       <c r="G14">
-        <v>33.77653484680202</v>
+        <v>26.13837450583055</v>
       </c>
       <c r="H14">
-        <v>15.46866832093594</v>
+        <v>9.023619211245455</v>
       </c>
       <c r="I14">
-        <v>25.31839754693482</v>
+        <v>16.9693305710327</v>
       </c>
       <c r="J14">
-        <v>10.10190987937698</v>
+        <v>5.831812297506586</v>
       </c>
       <c r="K14">
-        <v>17.0766987312482</v>
+        <v>23.88811182242938</v>
       </c>
       <c r="L14">
-        <v>10.3125132835959</v>
+        <v>6.130903227780342</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.41052729393706</v>
+        <v>12.98815072526819</v>
       </c>
       <c r="O14">
-        <v>24.23706837836356</v>
+        <v>15.5075952774941</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.86941944848266</v>
+        <v>9.686916631732041</v>
       </c>
       <c r="D15">
-        <v>9.468957647449736</v>
+        <v>7.815784486227442</v>
       </c>
       <c r="E15">
-        <v>13.91483895128134</v>
+        <v>10.02753789476907</v>
       </c>
       <c r="F15">
-        <v>32.46427388482027</v>
+        <v>23.16898747026403</v>
       </c>
       <c r="G15">
-        <v>33.77835564058314</v>
+        <v>26.0585732525252</v>
       </c>
       <c r="H15">
-        <v>15.47317174935456</v>
+        <v>9.022654033430298</v>
       </c>
       <c r="I15">
-        <v>25.32229874329956</v>
+        <v>16.93845985124975</v>
       </c>
       <c r="J15">
-        <v>10.10341316212008</v>
+        <v>5.83012859776129</v>
       </c>
       <c r="K15">
-        <v>17.02631097392521</v>
+        <v>23.76103732488133</v>
       </c>
       <c r="L15">
-        <v>10.31356399373969</v>
+        <v>6.126355193706813</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.41100245563743</v>
+        <v>12.98289025427418</v>
       </c>
       <c r="O15">
-        <v>24.24322397320356</v>
+        <v>15.48816131551845</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.82669419412817</v>
+        <v>9.455982656710324</v>
       </c>
       <c r="D16">
-        <v>9.440216048245107</v>
+        <v>7.64609857773846</v>
       </c>
       <c r="E16">
-        <v>13.9017405625575</v>
+        <v>9.86835303936564</v>
       </c>
       <c r="F16">
-        <v>32.47923933450912</v>
+        <v>22.8483389460141</v>
       </c>
       <c r="G16">
-        <v>33.79186563057409</v>
+        <v>25.60783473330162</v>
       </c>
       <c r="H16">
-        <v>15.49972073625826</v>
+        <v>9.019540902904932</v>
       </c>
       <c r="I16">
-        <v>25.34624010979083</v>
+        <v>16.76566972314534</v>
       </c>
       <c r="J16">
-        <v>10.11232087790258</v>
+        <v>5.821173096159075</v>
       </c>
       <c r="K16">
-        <v>16.73473741514393</v>
+        <v>23.01967185863383</v>
       </c>
       <c r="L16">
-        <v>10.31988899393639</v>
+        <v>6.100938104528429</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.41422652082957</v>
+        <v>12.95397630819813</v>
       </c>
       <c r="O16">
-        <v>24.28004230833773</v>
+        <v>15.38176956964526</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.8008418422739</v>
+        <v>9.312492161179618</v>
       </c>
       <c r="D17">
-        <v>9.42285665760496</v>
+        <v>7.54078813238549</v>
       </c>
       <c r="E17">
-        <v>13.89421277815643</v>
+        <v>9.770646576048302</v>
       </c>
       <c r="F17">
-        <v>32.49041571090892</v>
+        <v>22.655816926302</v>
       </c>
       <c r="G17">
-        <v>33.80289532461418</v>
+        <v>25.33724331572373</v>
       </c>
       <c r="H17">
-        <v>15.51666928491722</v>
+        <v>9.019738828514598</v>
       </c>
       <c r="I17">
-        <v>25.36234102335073</v>
+        <v>16.66332600050658</v>
       </c>
       <c r="J17">
-        <v>10.11804724526591</v>
+        <v>5.816290725333119</v>
       </c>
       <c r="K17">
-        <v>16.55342660673776</v>
+        <v>22.55309173116488</v>
       </c>
       <c r="L17">
-        <v>10.32404066304241</v>
+        <v>6.085919255732464</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.41665256729112</v>
+        <v>12.93732339866953</v>
       </c>
       <c r="O17">
-        <v>24.30400447008891</v>
+        <v>15.32087644889246</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.78610746955181</v>
+        <v>9.229311600020498</v>
       </c>
       <c r="D18">
-        <v>9.412974310267105</v>
+        <v>7.479786715656518</v>
       </c>
       <c r="E18">
-        <v>13.89007054856411</v>
+        <v>9.714445460103436</v>
       </c>
       <c r="F18">
-        <v>32.4975772100301</v>
+        <v>22.5466327936107</v>
       </c>
       <c r="G18">
-        <v>33.8102456420202</v>
+        <v>25.18380569022871</v>
       </c>
       <c r="H18">
-        <v>15.52666070283011</v>
+        <v>9.020607584805107</v>
       </c>
       <c r="I18">
-        <v>25.37212099794295</v>
+        <v>16.60579743999475</v>
       </c>
       <c r="J18">
-        <v>10.12143722446702</v>
+        <v>5.813704517860756</v>
       </c>
       <c r="K18">
-        <v>16.44827685186542</v>
+        <v>22.28038394665339</v>
       </c>
       <c r="L18">
-        <v>10.32652851851641</v>
+        <v>6.07749059949424</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.41821308019359</v>
+        <v>12.9281381768007</v>
       </c>
       <c r="O18">
-        <v>24.31829162577074</v>
+        <v>15.2874331471299</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.78114222321904</v>
+        <v>9.201038732843319</v>
       </c>
       <c r="D19">
-        <v>9.4096460884242</v>
+        <v>7.459060533055133</v>
       </c>
       <c r="E19">
-        <v>13.8887003649643</v>
+        <v>9.695417792072138</v>
       </c>
       <c r="F19">
-        <v>32.50012786121938</v>
+        <v>22.50993206757191</v>
       </c>
       <c r="G19">
-        <v>33.81290703867538</v>
+        <v>25.13223422050264</v>
       </c>
       <c r="H19">
-        <v>15.53008536388677</v>
+        <v>9.021029530677582</v>
       </c>
       <c r="I19">
-        <v>25.3755214576084</v>
+        <v>16.5865481106484</v>
       </c>
       <c r="J19">
-        <v>10.12260156861013</v>
+        <v>5.812866743105833</v>
       </c>
       <c r="K19">
-        <v>16.41252961233821</v>
+        <v>22.18730239273408</v>
       </c>
       <c r="L19">
-        <v>10.32738804039806</v>
+        <v>6.074672731083551</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.41876983998851</v>
+        <v>12.9250952053382</v>
       </c>
       <c r="O19">
-        <v>24.32321563853849</v>
+        <v>15.27637869700274</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.80357995490082</v>
+        <v>9.327834577063566</v>
       </c>
       <c r="D20">
-        <v>9.424694052491263</v>
+        <v>7.552043458674966</v>
       </c>
       <c r="E20">
-        <v>13.89499473460864</v>
+        <v>9.781048270677022</v>
       </c>
       <c r="F20">
-        <v>32.48915008291235</v>
+        <v>22.67615111015135</v>
       </c>
       <c r="G20">
-        <v>33.80161701288846</v>
+        <v>25.36582111431212</v>
       </c>
       <c r="H20">
-        <v>15.51483992532926</v>
+        <v>9.019639186110979</v>
       </c>
       <c r="I20">
-        <v>25.36057331438537</v>
+        <v>16.67408213209247</v>
       </c>
       <c r="J20">
-        <v>10.11742769727495</v>
+        <v>5.81678742404786</v>
       </c>
       <c r="K20">
-        <v>16.57281767415334</v>
+        <v>22.6032091485359</v>
       </c>
       <c r="L20">
-        <v>10.32358837235759</v>
+        <v>6.087496301526555</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.41637723082431</v>
+        <v>12.93905532039725</v>
       </c>
       <c r="O20">
-        <v>24.30140140162552</v>
+        <v>15.32719439766245</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.88055806664889</v>
+        <v>9.745961207133156</v>
       </c>
       <c r="D21">
-        <v>9.47646070935304</v>
+        <v>7.859206257115628</v>
       </c>
       <c r="E21">
-        <v>13.91837681424943</v>
+        <v>10.06860764639985</v>
       </c>
       <c r="F21">
-        <v>32.46102716345176</v>
+        <v>23.25305707820209</v>
       </c>
       <c r="G21">
-        <v>33.77571616947122</v>
+        <v>26.17675675395547</v>
       </c>
       <c r="H21">
-        <v>15.46652192668497</v>
+        <v>9.024125514502224</v>
       </c>
       <c r="I21">
-        <v>25.31655486876576</v>
+        <v>16.98420697202203</v>
       </c>
       <c r="J21">
-        <v>10.10119419314002</v>
+        <v>5.832632035557564</v>
       </c>
       <c r="K21">
-        <v>17.10081005451856</v>
+        <v>23.94881540394761</v>
       </c>
       <c r="L21">
-        <v>10.31201480799262</v>
+        <v>6.133095594423611</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.41030829037533</v>
+        <v>12.99069525258718</v>
       </c>
       <c r="O21">
-        <v>24.23414392237031</v>
+        <v>15.51700332053941</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.93199512887886</v>
+        <v>10.01305143125617</v>
       </c>
       <c r="D22">
-        <v>9.511158871731851</v>
+        <v>8.055798909521068</v>
       </c>
       <c r="E22">
-        <v>13.9353069303691</v>
+        <v>10.25618720887426</v>
       </c>
       <c r="F22">
-        <v>32.44917894910474</v>
+        <v>23.64364995868659</v>
       </c>
       <c r="G22">
-        <v>33.76777351511093</v>
+        <v>26.72583848864172</v>
       </c>
       <c r="H22">
-        <v>15.43710936414882</v>
+        <v>9.03419941998297</v>
       </c>
       <c r="I22">
-        <v>25.2924163301507</v>
+        <v>17.19893785850267</v>
       </c>
       <c r="J22">
-        <v>10.09143977295907</v>
+        <v>5.84502266331874</v>
       </c>
       <c r="K22">
-        <v>17.43752611262121</v>
+        <v>24.78990592612269</v>
       </c>
       <c r="L22">
-        <v>10.30533731002778</v>
+        <v>6.164787439131533</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.4078034576796</v>
+        <v>13.0280648990981</v>
       </c>
       <c r="O22">
-        <v>24.19469588039065</v>
+        <v>15.65568674984415</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.90444280814209</v>
+        <v>9.871083275012396</v>
       </c>
       <c r="D23">
-        <v>9.492562838316978</v>
+        <v>7.951268534678277</v>
       </c>
       <c r="E23">
-        <v>13.92612124709096</v>
+        <v>10.15612029808492</v>
       </c>
       <c r="F23">
-        <v>32.45490487391225</v>
+        <v>23.43395551929113</v>
       </c>
       <c r="G23">
-        <v>33.77118961246373</v>
+        <v>26.43106104759771</v>
       </c>
       <c r="H23">
-        <v>15.45260913249158</v>
+        <v>9.028148887039723</v>
       </c>
       <c r="I23">
-        <v>25.30487558137204</v>
+        <v>17.08322376126335</v>
       </c>
       <c r="J23">
-        <v>10.09656777669309</v>
+        <v>5.838220480701118</v>
       </c>
       <c r="K23">
-        <v>17.25860915474232</v>
+        <v>24.34449149315369</v>
       </c>
       <c r="L23">
-        <v>10.30882026602068</v>
+        <v>6.147698927635214</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.40900703193578</v>
+        <v>13.00778293840249</v>
       </c>
       <c r="O23">
-        <v>24.21533686173199</v>
+        <v>15.58030436413135</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.80234165312135</v>
+        <v>9.320900402706593</v>
       </c>
       <c r="D24">
-        <v>9.423863061144505</v>
+        <v>7.546956345376159</v>
       </c>
       <c r="E24">
-        <v>13.89464063376672</v>
+        <v>9.77634574910878</v>
       </c>
       <c r="F24">
-        <v>32.48971998063305</v>
+        <v>22.66695335284096</v>
       </c>
       <c r="G24">
-        <v>33.80219179432972</v>
+        <v>25.35289445479084</v>
       </c>
       <c r="H24">
-        <v>15.51566620795185</v>
+        <v>9.019681887527794</v>
       </c>
       <c r="I24">
-        <v>25.36137086550885</v>
+        <v>16.66921520569494</v>
       </c>
       <c r="J24">
-        <v>10.1177074902118</v>
+        <v>5.81656217967095</v>
       </c>
       <c r="K24">
-        <v>16.56405380491274</v>
+        <v>22.58056497418304</v>
       </c>
       <c r="L24">
-        <v>10.32379253831978</v>
+        <v>6.086782678099488</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.41650119405474</v>
+        <v>12.93827110900844</v>
       </c>
       <c r="O24">
-        <v>24.30257665732785</v>
+        <v>15.3243331848474</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.69742046513721</v>
+        <v>8.702988327450925</v>
       </c>
       <c r="D25">
-        <v>9.353695523217027</v>
+        <v>7.094683511006521</v>
       </c>
       <c r="E25">
-        <v>13.86786475969283</v>
+        <v>9.366818804076447</v>
       </c>
       <c r="F25">
-        <v>32.55529519141291</v>
+        <v>21.89895603431591</v>
       </c>
       <c r="G25">
-        <v>33.87408043901905</v>
+        <v>24.27423293248895</v>
       </c>
       <c r="H25">
-        <v>15.59297524443452</v>
+        <v>9.039168376348982</v>
       </c>
       <c r="I25">
-        <v>25.44215173560098</v>
+        <v>16.2736074250253</v>
       </c>
       <c r="J25">
-        <v>10.14419428751203</v>
+        <v>5.801653650207604</v>
       </c>
       <c r="K25">
-        <v>15.78229280932444</v>
+        <v>20.51166163049623</v>
       </c>
       <c r="L25">
-        <v>10.34376471390718</v>
+        <v>6.029079982852234</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.43090227701698</v>
+        <v>12.87825132258442</v>
       </c>
       <c r="O25">
-        <v>24.41596717794808</v>
+        <v>15.10826668481895</v>
       </c>
     </row>
   </sheetData>
